--- a/documentatie/Burndown Chart sprint 2.xlsx
+++ b/documentatie/Burndown Chart sprint 2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anil\Documents\School Rotterdam\Informatica analyse\Periode 3\Project-3-data-application\Project-3-Data-Application\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Documents\Informatica\project\Project 3\Project-3-Data-Application\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9735" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Projectnaam</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Work item 15.1</t>
-  </si>
-  <si>
-    <t>User story 16</t>
   </si>
   <si>
     <t>Work item 15.2</t>
@@ -146,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -237,14 +234,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -253,7 +250,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -269,9 +266,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -372,7 +369,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F17-4F75-8786-C6EDC5C06EAD}"/>
             </c:ext>
@@ -437,22 +434,22 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F17-4F75-8786-C6EDC5C06EAD}"/>
             </c:ext>
@@ -467,11 +464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="503401280"/>
-        <c:axId val="503403632"/>
+        <c:axId val="405587824"/>
+        <c:axId val="405595664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="503401280"/>
+        <c:axId val="405587824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,7 +478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503403632"/>
+        <c:crossAx val="405595664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -489,7 +486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503403632"/>
+        <c:axId val="405595664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,13 +497,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503401280"/>
+        <c:crossAx val="405587824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -541,7 +539,7 @@
         <xdr:cNvPr id="9" name="Grafiek 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -886,24 +884,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.296875" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.59765625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="51.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="51.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -937,7 +935,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -960,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="2"/>
@@ -977,7 +975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -988,19 +986,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="2"/>
@@ -1014,7 +1012,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1028,16 +1026,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="2"/>
@@ -1051,30 +1049,30 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="2"/>
@@ -1088,15 +1086,15 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1104,7 +1102,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1117,7 +1115,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1128,19 +1126,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
@@ -1154,7 +1152,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1162,22 +1160,22 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="2"/>
@@ -1191,7 +1189,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1201,13 +1199,23 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1220,7 +1228,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1236,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -1237,13 +1245,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="2"/>
@@ -1257,7 +1265,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1268,19 +1276,19 @@
         <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="2"/>
@@ -1294,30 +1302,30 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="2"/>
@@ -1331,18 +1339,18 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1368,18 +1376,18 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -1388,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="2"/>
@@ -1405,15 +1413,15 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -1442,7 +1450,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1481,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -1482,19 +1490,19 @@
       </c>
       <c r="E17" s="2">
         <f>SUM(E2:E15)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2">
         <f>SUM(F2:F15)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <f>SUM(G2:G15)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H2:H15)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
